--- a/experiments/illuminance vs angle/illuminance vs angle.xlsx
+++ b/experiments/illuminance vs angle/illuminance vs angle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="10% brightness" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,10 @@
     <sheet name="80% brightness" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="100% brightness" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="average brightness per distance" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Avg" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Blue" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="distance and illuminance" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="16">
   <si>
     <t xml:space="preserve">Angles</t>
   </si>
@@ -48,6 +51,33 @@
   <si>
     <t xml:space="preserve">max</t>
   </si>
+  <si>
+    <t xml:space="preserve">Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std dev</t>
+  </si>
 </sst>
 </file>
 
@@ -55,10 +85,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$R-1C09]\ #,##0.00;[RED][$R-1C09]\-#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -82,25 +112,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
@@ -110,6 +121,11 @@
       <sz val="9"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -130,7 +146,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,24 +170,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,22 +180,26 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading 1" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading1 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result 3" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result2 4" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -213,7 +217,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -247,7 +251,7 @@
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -260,7 +264,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -335,6 +339,150 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -433,13 +581,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1667854"/>
-        <c:axId val="50112960"/>
+        <c:axId val="46728439"/>
+        <c:axId val="42127090"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1667854"/>
+        <c:axId val="46728439"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -470,14 +618,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50112960"/>
+        <c:crossAx val="42127090"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50112960"/>
+        <c:axId val="42127090"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,595 +668,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1667854"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>avg</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.128740157480315"/>
-          <c:y val="0.19488188976378"/>
-          <c:w val="0.871181102362205"/>
-          <c:h val="0.720734908136483"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'100% brightness'!$W$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'100% brightness'!$Q$8:$Q$17</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>110</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'100% brightness'!$W$8:$W$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.00763984177161</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.571426077228786</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34956075129698</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22085620986663</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.162395189579232</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.131782829691602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.104246277649224</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0855638801671721</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0715157725379365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0576237989688896</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="39878874"/>
-        <c:axId val="97719234"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="39878874"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="97719234"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97719234"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="39878874"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Chart Title</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:radarChart>
-        <c:radarStyle val="marker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'average brightness per distance'!$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'average brightness per distance'!$C$35:$N$35</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>330</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'average brightness per distance'!$C$36:$N$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.908947425245634</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.679359803032778</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0785461023103889</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0785461023103889</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.679359803032778</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.908947425245634</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="77717441"/>
-        <c:axId val="36217690"/>
-      </c:radarChart>
-      <c:catAx>
-        <c:axId val="77717441"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36217690"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="36217690"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77717441"/>
+        <c:crossAx val="46728439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1172,7 +732,7 @@
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>Chart Title</a:t>
+              <a:t>avg</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1181,18 +741,29 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:radarChart>
-        <c:radarStyle val="marker"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.128701507383886"/>
+          <c:y val="0.194907468171676"/>
+          <c:w val="0.871145458719106"/>
+          <c:h val="0.72069825436409"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$7</c:f>
+              <c:f>'100% brightness'!$W$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aveg</c:v>
+                  <c:v>avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1211,7 +782,126 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1221,353 +911,98 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$C$6:$N$6</c:f>
+              <c:f>'100% brightness'!$Q$8:$Q$17</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>240</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>330</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$7:$N$7</c:f>
+              <c:f>'100% brightness'!$W$8:$W$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.00763984177161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.908947425245634</c:v>
+                  <c:v>0.571426077228786</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.679359803032778</c:v>
+                  <c:v>0.34956075129698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0785461023103889</c:v>
+                  <c:v>0.22085620986663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.162395189579232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.131782829691602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.104246277649224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0855638801671721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0715157725379365</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0785461023103889</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.679359803032778</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.908947425245634</c:v>
+                  <c:v>0.0576237989688896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+        <c:hiLowLines>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$C$6:$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>330</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$8:$N$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.851227532752793</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.589851304672355</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0326978678126169</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0326978678126169</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.589851304672355</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.851227532752793</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>max</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$C$6:$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>330</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$9:$N$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.966667317738475</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.768868301393201</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.124394336808161</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.124394336808161</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.768868301393201</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.966667317738475</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="31922969"/>
-        <c:axId val="62273447"/>
-      </c:radarChart>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="89075139"/>
+        <c:axId val="29599481"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="31922969"/>
+        <c:axId val="89075139"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1577,7 +1012,10 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -1598,14 +1036,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62273447"/>
+        <c:crossAx val="29599481"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62273447"/>
+        <c:axId val="29599481"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1648,7 +1086,979 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31922969"/>
+        <c:crossAx val="89075139"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'average brightness per distance'!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'average brightness per distance'!$C$35:$N$35</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'average brightness per distance'!$C$36:$N$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.908947425245634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.679359803032778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0785461023103889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0785461023103889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.679359803032778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.908947425245634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="56387142"/>
+        <c:axId val="20621748"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="56387142"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20621748"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="20621748"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56387142"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Avg!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>aveg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Avg!$C$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Avg!$C$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.908947425245634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.679359803032778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0785461023103889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0785461023103889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.679359803032778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.908947425245634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Avg!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Avg!$C$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Avg!$C$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.851227532752793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.589851304672355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0326978678126169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0326978678126169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.589851304672355</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.851227532752793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Avg!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="a5a5a5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Avg!$C$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Avg!$C$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966667317738475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.768868301393201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.124394336808161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.124394336808161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.768868301393201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.966667317738475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="80701222"/>
+        <c:axId val="60256915"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="80701222"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60256915"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60256915"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80701222"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1686,6 +2096,256 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'distance and illuminance'!$R$7:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'distance and illuminance'!$S$7:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.640774825533513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4106698404076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.292089969978291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.217297297656968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.165954718831698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.131708062871185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.111408068626885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0891809067125453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="26844958"/>
+        <c:axId val="99981159"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="26844958"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99981159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="99981159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26844958"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1697,9 +2357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>344880</xdr:colOff>
+      <xdr:colOff>344520</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1707,8 +2367,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7174440" y="1023840"/>
-        <a:ext cx="4571640" cy="2742480"/>
+        <a:off x="7383960" y="1023840"/>
+        <a:ext cx="4704840" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1732,9 +2392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>452160</xdr:colOff>
+      <xdr:colOff>451800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1742,8 +2402,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13254120" y="1795320"/>
-        <a:ext cx="4571640" cy="2742840"/>
+        <a:off x="13635000" y="1795320"/>
+        <a:ext cx="4704480" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1760,16 +2420,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>547560</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>318600</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209160</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1777,8 +2437,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3976560" y="4052520"/>
-        <a:ext cx="4571640" cy="2742840"/>
+        <a:off x="8896320" y="4376160"/>
+        <a:ext cx="4704840" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1802,9 +2462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>143280</xdr:colOff>
+      <xdr:colOff>142920</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1812,8 +2472,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3320280" y="2371320"/>
-        <a:ext cx="5052600" cy="3538080"/>
+        <a:off x="3396240" y="2371320"/>
+        <a:ext cx="5204880" cy="3537720"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>706320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>776520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>146160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8021520" y="1036440"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1834,15 +2529,15 @@
   <dimension ref="B5:N37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="1" sqref="C9:N9 C36"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="G9:G17 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,6 +3823,522 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B9:U22"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="1" sqref="G9:G17 F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5023255813953"/>
+  </cols>
+  <sheetData>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">'100% brightness'!C8</f>
+        <v>10000</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>5926</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2657</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1171</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>820</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <f aca="false">C11/$C$11</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <f aca="false">D11/$D$11</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <f aca="false">E11/$E$11</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <f aca="false">F11/$F$11</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <f aca="false">G11/$G$11</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <f aca="false">AVERAGE(J11:N11)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <f aca="false">STDEV(J11:N11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>8750</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1420</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1096</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>736</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <f aca="false">C12/$C$11</f>
+        <v>0.875</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <f aca="false">D12/$D$11</f>
+        <v>0.889301383732703</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <f aca="false">E12/$E$11</f>
+        <v>0.53443733534061</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <f aca="false">F12/$F$11</f>
+        <v>0.935952177625961</v>
+      </c>
+      <c r="N12" s="4" t="n">
+        <f aca="false">G12/$G$11</f>
+        <v>0.897560975609756</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <f aca="false">AVERAGE(J12:N12)</f>
+        <v>0.826450374461806</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <f aca="false">STDEV(J12:N12)</f>
+        <v>0.164792515769748</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>4163</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1730</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>754</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>523</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <f aca="false">C13/$C$11</f>
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <f aca="false">D13/$D$11</f>
+        <v>0.70249746878164</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <f aca="false">E13/$E$11</f>
+        <v>0.651110274745954</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <f aca="false">F13/$F$11</f>
+        <v>0.643894107600342</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <f aca="false">G13/$G$11</f>
+        <v>0.637804878048781</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <f aca="false">AVERAGE(J13:N13)</f>
+        <v>0.677061345835343</v>
+      </c>
+      <c r="P13" s="4" t="n">
+        <f aca="false">STDEV(J13:N13)</f>
+        <v>0.0481706281560451</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2038</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>940</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <f aca="false">C14/$C$11</f>
+        <v>0.2038</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <f aca="false">D14/$D$11</f>
+        <v>0.158623017212285</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <f aca="false">E14/$E$11</f>
+        <v>0.0873165223936771</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <f aca="false">F14/$F$11</f>
+        <v>0.0572160546541418</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <f aca="false">G14/$G$11</f>
+        <v>0.0524390243902439</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <f aca="false">AVERAGE(J14:N14)</f>
+        <v>0.11187892373007</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <f aca="false">STDEV(J14:N14)</f>
+        <v>0.0666313308186305</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="0" t="n">
+        <f aca="false">I11</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <f aca="false">J11</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <f aca="false">K11</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <f aca="false">L11</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="4" t="n">
+        <f aca="false">M11</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <f aca="false">N11</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <f aca="false">O11</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <f aca="false">P11</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0" t="n">
+        <f aca="false">I12</f>
+        <v>30</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <f aca="false">J12</f>
+        <v>0.875</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <f aca="false">K12</f>
+        <v>0.889301383732703</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <f aca="false">L12</f>
+        <v>0.53443733534061</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="4" t="n">
+        <f aca="false">M12</f>
+        <v>0.935952177625961</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="4" t="n">
+        <f aca="false">N12</f>
+        <v>0.897560975609756</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="4" t="n">
+        <f aca="false">O12</f>
+        <v>0.826450374461806</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <f aca="false">P12</f>
+        <v>0.164792515769748</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0" t="n">
+        <f aca="false">I13</f>
+        <v>60</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <f aca="false">J13</f>
+        <v>0.75</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <f aca="false">K13</f>
+        <v>0.70249746878164</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="4" t="n">
+        <f aca="false">L13</f>
+        <v>0.651110274745954</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <f aca="false">M13</f>
+        <v>0.643894107600342</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <f aca="false">N13</f>
+        <v>0.637804878048781</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <f aca="false">O13</f>
+        <v>0.677061345835343</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <f aca="false">P13</f>
+        <v>0.0481706281560451</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="0" t="n">
+        <f aca="false">I14</f>
+        <v>90</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <f aca="false">J14</f>
+        <v>0.2038</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <f aca="false">K14</f>
+        <v>0.158623017212285</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="4" t="n">
+        <f aca="false">L14</f>
+        <v>0.0873165223936771</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="4" t="n">
+        <f aca="false">M14</f>
+        <v>0.0572160546541418</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="4" t="n">
+        <f aca="false">N14</f>
+        <v>0.0524390243902439</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="4" t="n">
+        <f aca="false">O14</f>
+        <v>0.11187892373007</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="4" t="n">
+        <f aca="false">P14</f>
+        <v>0.0666313308186305</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -3135,14 +4346,14 @@
   </sheetPr>
   <dimension ref="B5:N37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="1" sqref="C9:N9 C35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="G9:G17 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,13 +5481,13 @@
   <dimension ref="B5:N37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="1" sqref="C9:N9 C35"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="G9:G17 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5569,13 +6780,13 @@
   <dimension ref="B5:N37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="1" sqref="C9:N9 C35"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="G9:G17 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6694,13 +7905,13 @@
   <dimension ref="B5:X37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C9:N9 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="G9:G17 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8072,7 +9283,7 @@
       </c>
       <c r="D37" s="2" t="n">
         <f aca="false">STDEVA(D24:D33)</f>
-        <v>0.0933666188561354</v>
+        <v>0.0933666188561351</v>
       </c>
       <c r="E37" s="2" t="n">
         <f aca="false">STDEVA(E24:E33)</f>
@@ -8135,15 +9346,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B22:N36"/>
+  <dimension ref="B22:N48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="1" sqref="C9:N9 C36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="1" sqref="G9:G17 B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8251,7 +9462,7 @@
       </c>
       <c r="E24" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!E24,'30% brightness'!E24,'50% brightness'!E24,'80% brightness'!E24,'100% brightness'!E24)</f>
-        <v>0.880046089510271</v>
+        <v>0.88004608951027</v>
       </c>
       <c r="F24" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!F24,'30% brightness'!F24,'50% brightness'!F24,'80% brightness'!F24,'100% brightness'!F24)</f>
@@ -8283,7 +9494,7 @@
       </c>
       <c r="M24" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!M24,'30% brightness'!M24,'50% brightness'!M24,'80% brightness'!M24,'100% brightness'!M24)</f>
-        <v>0.880046089510271</v>
+        <v>0.88004608951027</v>
       </c>
       <c r="N24" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!N24,'30% brightness'!N24,'50% brightness'!N24,'80% brightness'!N24,'100% brightness'!N24)</f>
@@ -8410,7 +9621,7 @@
       </c>
       <c r="E27" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!E27,'30% brightness'!E27,'50% brightness'!E27,'80% brightness'!E27,'100% brightness'!E27)</f>
-        <v>0.676695222882602</v>
+        <v>0.676695222882601</v>
       </c>
       <c r="F27" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!F27,'30% brightness'!F27,'50% brightness'!F27,'80% brightness'!F27,'100% brightness'!F27)</f>
@@ -8442,7 +9653,7 @@
       </c>
       <c r="M27" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!M27,'30% brightness'!M27,'50% brightness'!M27,'80% brightness'!M27,'100% brightness'!M27)</f>
-        <v>0.676695222882602</v>
+        <v>0.676695222882601</v>
       </c>
       <c r="N27" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!N27,'30% brightness'!N27,'50% brightness'!N27,'80% brightness'!N27,'100% brightness'!N27)</f>
@@ -8816,7 +10027,7 @@
       </c>
       <c r="E36" s="2" t="n">
         <f aca="false">AVERAGE(E24:E33)</f>
-        <v>0.679359803032778</v>
+        <v>0.679359803032777</v>
       </c>
       <c r="F36" s="2" t="n">
         <f aca="false">AVERAGE(F24:F33)</f>
@@ -8848,11 +10059,65 @@
       </c>
       <c r="M36" s="2" t="n">
         <f aca="false">AVERAGE(M24:M33)</f>
-        <v>0.679359803032778</v>
+        <v>0.679359803032777</v>
       </c>
       <c r="N36" s="2" t="n">
         <f aca="false">AVERAGE(N24:N33)</f>
         <v>0.908947425245634</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <f aca="false">B24</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <f aca="false">B25</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <f aca="false">B26</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <f aca="false">B27</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
+        <f aca="false">B28</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <f aca="false">B29</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="n">
+        <f aca="false">B30</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <f aca="false">B31</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="n">
+        <f aca="false">B32</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8874,13 +10139,13 @@
   </sheetPr>
   <dimension ref="B6:N11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9:N9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="G9:G17 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8939,7 +10204,7 @@
       </c>
       <c r="F7" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!F36,'30% brightness'!F36,'50% brightness'!F36,'80% brightness'!F36,'100% brightness'!F36)</f>
-        <v>0.0785461023103889</v>
+        <v>0.078546102310389</v>
       </c>
       <c r="G7" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!G36,'30% brightness'!G36,'50% brightness'!G36,'80% brightness'!G36,'100% brightness'!G36)</f>
@@ -8963,7 +10228,7 @@
       </c>
       <c r="L7" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!L36,'30% brightness'!L36,'50% brightness'!L36,'80% brightness'!L36,'100% brightness'!L36)</f>
-        <v>0.0785461023103889</v>
+        <v>0.078546102310389</v>
       </c>
       <c r="M7" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!M36,'30% brightness'!M36,'50% brightness'!M36,'80% brightness'!M36,'100% brightness'!M36)</f>
@@ -9041,7 +10306,7 @@
       </c>
       <c r="E9" s="2" t="n">
         <f aca="false">E7+E11</f>
-        <v>0.768868301393201</v>
+        <v>0.7688683013932</v>
       </c>
       <c r="F9" s="2" t="n">
         <f aca="false">F7+F11</f>
@@ -9073,7 +10338,7 @@
       </c>
       <c r="M9" s="2" t="n">
         <f aca="false">M7+M11</f>
-        <v>0.768868301393201</v>
+        <v>0.7688683013932</v>
       </c>
       <c r="N9" s="2" t="n">
         <f aca="false">N7+N11</f>
@@ -9091,7 +10356,7 @@
       </c>
       <c r="E10" s="2" t="n">
         <f aca="false">STDEVA('10% brightness'!E36,'30% brightness'!E36,'50% brightness'!E36,'80% brightness'!E36,'100% brightness'!E36)</f>
-        <v>0.0284332690512447</v>
+        <v>0.0284332690512448</v>
       </c>
       <c r="F10" s="2" t="n">
         <f aca="false">STDEVA('10% brightness'!F36,'30% brightness'!F36,'50% brightness'!F36,'80% brightness'!F36,'100% brightness'!F36)</f>
@@ -9123,7 +10388,7 @@
       </c>
       <c r="M10" s="2" t="n">
         <f aca="false">STDEVA('10% brightness'!M36,'30% brightness'!M36,'50% brightness'!M36,'80% brightness'!M36,'100% brightness'!M36)</f>
-        <v>0.0284332690512447</v>
+        <v>0.0284332690512448</v>
       </c>
       <c r="N10" s="2" t="n">
         <f aca="false">STDEVA('10% brightness'!N36,'30% brightness'!N36,'50% brightness'!N36,'80% brightness'!N36,'100% brightness'!N36)</f>
@@ -9141,7 +10406,7 @@
       </c>
       <c r="E11" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!E37,'30% brightness'!E37,'50% brightness'!E37,'80% brightness'!E37,'100% brightness'!E37)</f>
-        <v>0.0895084983604227</v>
+        <v>0.0895084983604222</v>
       </c>
       <c r="F11" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!F37,'30% brightness'!F37,'50% brightness'!F37,'80% brightness'!F37,'100% brightness'!F37)</f>
@@ -9173,7 +10438,7 @@
       </c>
       <c r="M11" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!M37,'30% brightness'!M37,'50% brightness'!M37,'80% brightness'!M37,'100% brightness'!M37)</f>
-        <v>0.0895084983604227</v>
+        <v>0.0895084983604222</v>
       </c>
       <c r="N11" s="2" t="n">
         <f aca="false">AVERAGE('10% brightness'!N37,'30% brightness'!N37,'50% brightness'!N37,'80% brightness'!N37,'100% brightness'!N37)</f>
@@ -9190,4 +10455,1827 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:L28"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5023255813953"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="3"/>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4285</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>4840</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>6420</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5310</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>4910</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>3770</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>3302</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2507</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2354</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1657</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1375</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1227</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>892</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>943</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>691</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>810</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>785</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>547</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>667</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>607</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>557</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>353</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
+        <f aca="false">C8</f>
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">D8</f>
+        <v>4285</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">E8</f>
+        <v>4200</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">F8</f>
+        <v>4840</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">G8</f>
+        <v>2600</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
+        <f aca="false">C9</f>
+        <v>20</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">D9</f>
+        <v>6420</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">E9</f>
+        <v>5950</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">F9</f>
+        <v>5310</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">G9</f>
+        <v>1998</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
+        <f aca="false">C10</f>
+        <v>30</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">D10</f>
+        <v>4910</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">E10</f>
+        <v>3770</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">F10</f>
+        <v>3302</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">G10</f>
+        <v>547</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
+        <f aca="false">C11</f>
+        <v>40</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">D11</f>
+        <v>2507</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">E11</f>
+        <v>2354</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">F11</f>
+        <v>1657</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">G11</f>
+        <v>149</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
+        <f aca="false">C12</f>
+        <v>50</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">D12</f>
+        <v>1820</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">E12</f>
+        <v>1620</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">F12</f>
+        <v>1219</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">G12</f>
+        <v>110</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
+        <f aca="false">C13</f>
+        <v>60</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">D13</f>
+        <v>1375</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">E13</f>
+        <v>1227</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">F13</f>
+        <v>892</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">G13</f>
+        <v>60</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
+        <f aca="false">C14</f>
+        <v>70</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">D14</f>
+        <v>1012</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">E14</f>
+        <v>943</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">F14</f>
+        <v>691</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">G14</f>
+        <v>55</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="n">
+        <f aca="false">C15</f>
+        <v>80</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">D15</f>
+        <v>810</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">E15</f>
+        <v>785</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">F15</f>
+        <v>547</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">G15</f>
+        <v>43</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="n">
+        <f aca="false">C16</f>
+        <v>90</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">D16</f>
+        <v>667</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">E16</f>
+        <v>607</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">F16</f>
+        <v>420</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">G16</f>
+        <v>35</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="n">
+        <f aca="false">C17</f>
+        <v>100</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">D17</f>
+        <v>557</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">E17</f>
+        <v>500</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">F17</f>
+        <v>353</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">G17</f>
+        <v>30</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:G6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B5:T28"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R7" activeCellId="1" sqref="G9:G17 R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5023255813953"/>
+  </cols>
+  <sheetData>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3460</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>6640</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>8420</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <f aca="false">C6/$C$7</f>
+        <v>0.87378640776699</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <f aca="false">D6/$D$7</f>
+        <v>0.668989547038328</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <f aca="false">E6/$E$7</f>
+        <v>0.778753094755796</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <f aca="false">F6/$F$7</f>
+        <v>0.942913944902016</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <f aca="false">G6/$G$7</f>
+        <v>0.842</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <f aca="false">AVERAGE(J6:N6)</f>
+        <v>0.821288598892626</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <f aca="false">STDEV(J6:N6)</f>
+        <v>0.10366047604106</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>515</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2870</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4443</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>7042</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <f aca="false">C7/$C$7</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <f aca="false">D7/$D$7</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <f aca="false">E7/$E$7</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <f aca="false">F7/$F$7</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <f aca="false">G7/$G$7</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <f aca="false">AVERAGE(J7:N7)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <f aca="false">STDEV(J7:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <f aca="false">O7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2871</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>4573</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>5926</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <f aca="false">C8/$C$7</f>
+        <v>0.681553398058252</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <f aca="false">D8/$D$7</f>
+        <v>0.634146341463415</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <f aca="false">E8/$E$7</f>
+        <v>0.646185010128292</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <f aca="false">F8/$F$7</f>
+        <v>0.649389378017609</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <f aca="false">G8/$G$7</f>
+        <v>0.5926</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <f aca="false">AVERAGE(J8:N8)</f>
+        <v>0.640774825533513</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <f aca="false">STDEV(J8:N8)</f>
+        <v>0.0321369071522845</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <f aca="false">O8</f>
+        <v>0.640774825533513</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1947</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2880</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>3608</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <f aca="false">C9/$C$7</f>
+        <v>0.444660194174757</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <f aca="false">D9/$D$7</f>
+        <v>0.400696864111498</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <f aca="false">E9/$E$7</f>
+        <v>0.438217420661715</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <f aca="false">F9/$F$7</f>
+        <v>0.408974723090031</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <f aca="false">G9/$G$7</f>
+        <v>0.3608</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <f aca="false">AVERAGE(J9:N9)</f>
+        <v>0.4106698404076</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <f aca="false">STDEV(J9:N9)</f>
+        <v>0.0335542396288302</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <f aca="false">O9</f>
+        <v>0.4106698404076</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1383</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1982</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2657</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <f aca="false">C10/$C$7</f>
+        <v>0.314563106796116</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <f aca="false">D10/$D$7</f>
+        <v>0.287456445993031</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <f aca="false">E10/$E$7</f>
+        <v>0.311276164753545</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <f aca="false">F10/$F$7</f>
+        <v>0.281454132348765</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <f aca="false">G10/$G$7</f>
+        <v>0.2657</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <f aca="false">AVERAGE(J10:N10)</f>
+        <v>0.292089969978291</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <f aca="false">STDEV(J10:N10)</f>
+        <v>0.0206408154541276</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <f aca="false">O10</f>
+        <v>0.292089969978291</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>587</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1520</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2042</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <f aca="false">C11/$C$7</f>
+        <v>0.233009708737864</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <f aca="false">D11/$D$7</f>
+        <v>0.204529616724739</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <f aca="false">E11/$E$7</f>
+        <v>0.228899392302498</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <f aca="false">F11/$F$7</f>
+        <v>0.215847770519739</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <f aca="false">G11/$G$7</f>
+        <v>0.2042</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <f aca="false">AVERAGE(J11:N11)</f>
+        <v>0.217297297656968</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <f aca="false">STDEV(J11:N11)</f>
+        <v>0.013399090205709</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <f aca="false">O11</f>
+        <v>0.217297297656968</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>787</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <f aca="false">C12/$C$7</f>
+        <v>0.178640776699029</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <f aca="false">D12/$D$7</f>
+        <v>0.153310104529617</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <f aca="false">E12/$E$7</f>
+        <v>0.177132568084628</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <f aca="false">F12/$F$7</f>
+        <v>0.170690144845214</v>
+      </c>
+      <c r="N12" s="4" t="n">
+        <f aca="false">G12/$G$7</f>
+        <v>0.15</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <f aca="false">AVERAGE(J12:N12)</f>
+        <v>0.165954718831698</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <f aca="false">STDEV(J12:N12)</f>
+        <v>0.0134419489054872</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <f aca="false">O12</f>
+        <v>0.165954718831698</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>617</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>925</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1171</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <f aca="false">C13/$C$7</f>
+        <v>0.14368932038835</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <f aca="false">D13/$D$7</f>
+        <v>0.127526132404181</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <f aca="false">E13/$E$7</f>
+        <v>0.138870132793158</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <f aca="false">F13/$F$7</f>
+        <v>0.131354728770236</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <f aca="false">G13/$G$7</f>
+        <v>0.1171</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <f aca="false">AVERAGE(J13:N13)</f>
+        <v>0.131708062871185</v>
+      </c>
+      <c r="P13" s="4" t="n">
+        <f aca="false">STDEV(J13:N13)</f>
+        <v>0.0103181232005399</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <f aca="false">O13</f>
+        <v>0.131708062871185</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>970</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <f aca="false">C14/$C$7</f>
+        <v>0.116504854368932</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <f aca="false">D14/$D$7</f>
+        <v>0.101393728222997</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <f aca="false">E14/$E$7</f>
+        <v>0.114337159576862</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <f aca="false">F14/$F$7</f>
+        <v>0.127804600965635</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <f aca="false">G14/$G$7</f>
+        <v>0.097</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <f aca="false">AVERAGE(J14:N14)</f>
+        <v>0.111408068626885</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <f aca="false">STDEV(J14:N14)</f>
+        <v>0.0123620642158907</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <f aca="false">O14</f>
+        <v>0.111408068626885</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>418</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>610</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>820</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <f aca="false">C15/$C$7</f>
+        <v>0.100970873786408</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <f aca="false">D15/$D$7</f>
+        <v>0.0822299651567944</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <f aca="false">E15/$E$7</f>
+        <v>0.0940805761872609</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <f aca="false">F15/$F$7</f>
+        <v>0.0866231184322636</v>
+      </c>
+      <c r="N15" s="4" t="n">
+        <f aca="false">G15/$G$7</f>
+        <v>0.082</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <f aca="false">AVERAGE(J15:N15)</f>
+        <v>0.0891809067125453</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <f aca="false">STDEV(J15:N15)</f>
+        <v>0.00820721291268707</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <f aca="false">O15</f>
+        <v>0.0891809067125453</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0" t="n">
+        <f aca="false">I6</f>
+        <v>10</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <f aca="false">J6</f>
+        <v>0.87378640776699</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <f aca="false">K6</f>
+        <v>0.668989547038328</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <f aca="false">L6</f>
+        <v>0.778753094755796</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <f aca="false">M6</f>
+        <v>0.942913944902016</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <f aca="false">N6</f>
+        <v>0.842</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <f aca="false">O6</f>
+        <v>0.821288598892626</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <f aca="false">P6</f>
+        <v>0.10366047604106</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="0" t="n">
+        <f aca="false">I7</f>
+        <v>20</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <f aca="false">J7</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <f aca="false">K7</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <f aca="false">L7</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <f aca="false">M7</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="4" t="n">
+        <f aca="false">N7</f>
+        <v>1</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="4" t="n">
+        <f aca="false">O7</f>
+        <v>1</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <f aca="false">P7</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="0" t="n">
+        <f aca="false">I8</f>
+        <v>30</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <f aca="false">J8</f>
+        <v>0.681553398058252</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <f aca="false">K8</f>
+        <v>0.634146341463415</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="4" t="n">
+        <f aca="false">L8</f>
+        <v>0.646185010128292</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <f aca="false">M8</f>
+        <v>0.649389378017609</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <f aca="false">N8</f>
+        <v>0.5926</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <f aca="false">O8</f>
+        <v>0.640774825533513</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="4" t="n">
+        <f aca="false">P8</f>
+        <v>0.0321369071522845</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="0" t="n">
+        <f aca="false">I9</f>
+        <v>40</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <f aca="false">J9</f>
+        <v>0.444660194174757</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <f aca="false">K9</f>
+        <v>0.400696864111498</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="4" t="n">
+        <f aca="false">L9</f>
+        <v>0.438217420661715</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="4" t="n">
+        <f aca="false">M9</f>
+        <v>0.408974723090031</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="4" t="n">
+        <f aca="false">N9</f>
+        <v>0.3608</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="4" t="n">
+        <f aca="false">O9</f>
+        <v>0.4106698404076</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="4" t="n">
+        <f aca="false">P9</f>
+        <v>0.0335542396288302</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="0" t="n">
+        <f aca="false">I10</f>
+        <v>50</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <f aca="false">J10</f>
+        <v>0.314563106796116</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <f aca="false">K10</f>
+        <v>0.287456445993031</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="4" t="n">
+        <f aca="false">L10</f>
+        <v>0.311276164753545</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <f aca="false">M10</f>
+        <v>0.281454132348765</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="4" t="n">
+        <f aca="false">N10</f>
+        <v>0.2657</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="4" t="n">
+        <f aca="false">O10</f>
+        <v>0.292089969978291</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="4" t="n">
+        <f aca="false">P10</f>
+        <v>0.0206408154541276</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="0" t="n">
+        <f aca="false">I11</f>
+        <v>60</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <f aca="false">J11</f>
+        <v>0.233009708737864</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <f aca="false">K11</f>
+        <v>0.204529616724739</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="4" t="n">
+        <f aca="false">L11</f>
+        <v>0.228899392302498</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <f aca="false">M11</f>
+        <v>0.215847770519739</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <f aca="false">N11</f>
+        <v>0.2042</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="4" t="n">
+        <f aca="false">O11</f>
+        <v>0.217297297656968</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="4" t="n">
+        <f aca="false">P11</f>
+        <v>0.013399090205709</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="n">
+        <f aca="false">I12</f>
+        <v>70</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <f aca="false">J12</f>
+        <v>0.178640776699029</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <f aca="false">K12</f>
+        <v>0.153310104529617</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="4" t="n">
+        <f aca="false">L12</f>
+        <v>0.177132568084628</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <f aca="false">M12</f>
+        <v>0.170690144845214</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="4" t="n">
+        <f aca="false">N12</f>
+        <v>0.15</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="4" t="n">
+        <f aca="false">O12</f>
+        <v>0.165954718831698</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" s="4" t="n">
+        <f aca="false">P12</f>
+        <v>0.0134419489054872</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0" t="n">
+        <f aca="false">I13</f>
+        <v>80</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <f aca="false">J13</f>
+        <v>0.14368932038835</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <f aca="false">K13</f>
+        <v>0.127526132404181</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="4" t="n">
+        <f aca="false">L13</f>
+        <v>0.138870132793158</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="4" t="n">
+        <f aca="false">M13</f>
+        <v>0.131354728770236</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="4" t="n">
+        <f aca="false">N13</f>
+        <v>0.1171</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="4" t="n">
+        <f aca="false">O13</f>
+        <v>0.131708062871185</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" s="4" t="n">
+        <f aca="false">P13</f>
+        <v>0.0103181232005399</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="0" t="n">
+        <f aca="false">I14</f>
+        <v>90</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <f aca="false">J14</f>
+        <v>0.116504854368932</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <f aca="false">K14</f>
+        <v>0.101393728222997</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="4" t="n">
+        <f aca="false">L14</f>
+        <v>0.114337159576862</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="4" t="n">
+        <f aca="false">M14</f>
+        <v>0.127804600965635</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="4" t="n">
+        <f aca="false">N14</f>
+        <v>0.097</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="4" t="n">
+        <f aca="false">O14</f>
+        <v>0.111408068626885</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" s="4" t="n">
+        <f aca="false">P14</f>
+        <v>0.0123620642158907</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="n">
+        <f aca="false">I15</f>
+        <v>100</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <f aca="false">J15</f>
+        <v>0.100970873786408</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <f aca="false">K15</f>
+        <v>0.0822299651567944</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="4" t="n">
+        <f aca="false">L15</f>
+        <v>0.0940805761872609</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="4" t="n">
+        <f aca="false">M15</f>
+        <v>0.0866231184322636</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="4" t="n">
+        <f aca="false">N15</f>
+        <v>0.082</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="4" t="n">
+        <f aca="false">O15</f>
+        <v>0.0891809067125453</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28" s="4" t="n">
+        <f aca="false">P15</f>
+        <v>0.00820721291268707</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/experiments/illuminance vs angle/illuminance vs angle.xlsx
+++ b/experiments/illuminance vs angle/illuminance vs angle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="10% brightness" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="16">
   <si>
     <t xml:space="preserve">Angles</t>
   </si>
@@ -88,7 +88,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -125,6 +125,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -171,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,10 +188,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -264,7 +266,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -343,9 +345,7 @@
             <c:idx val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="004586">
-                  <a:alpha val="-17698000"/>
-                </a:srgbClr>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="6407280">
                 <a:noFill/>
@@ -358,7 +358,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
               </a:solidFill>
-              <a:ln w="6022292400">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -369,7 +369,7 @@
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:ln w="6035662080">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -378,9 +378,7 @@
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c">
-                  <a:alpha val="-1446784704"/>
-                </a:srgbClr>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
               <a:ln w="2067066720">
                 <a:noFill/>
@@ -393,7 +391,7 @@
               <a:solidFill>
                 <a:srgbClr val="7e0021"/>
               </a:solidFill>
-              <a:ln w="2972724840">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -402,11 +400,9 @@
             <c:idx val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff">
-                  <a:alpha val="-47148408"/>
-                </a:srgbClr>
+                <a:srgbClr val="83caff"/>
               </a:solidFill>
-              <a:ln w="3109385880">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -428,7 +424,7 @@
               <a:solidFill>
                 <a:srgbClr val="aecf00"/>
               </a:solidFill>
-              <a:ln w="4124252160">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -437,9 +433,7 @@
             <c:idx val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f">
-                  <a:alpha val="-628179704"/>
-                </a:srgbClr>
+                <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
               <a:ln w="1772368920">
                 <a:noFill/>
@@ -452,7 +446,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff950e"/>
               </a:solidFill>
-              <a:ln w="6029941680">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -461,11 +455,9 @@
             <c:idx val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b">
-                  <a:alpha val="-25601112"/>
-                </a:srgbClr>
+                <a:srgbClr val="c5000b"/>
               </a:solidFill>
-              <a:ln w="4647817080">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -474,9 +466,7 @@
             <c:idx val="11"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1">
-                  <a:alpha val="-33901000"/>
-                </a:srgbClr>
+                <a:srgbClr val="0084d1"/>
               </a:solidFill>
               <a:ln w="12240360">
                 <a:noFill/>
@@ -484,6 +474,102 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -581,13 +667,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="46728439"/>
-        <c:axId val="42127090"/>
+        <c:axId val="2239662"/>
+        <c:axId val="71286320"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="46728439"/>
+        <c:axId val="2239662"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -618,14 +704,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42127090"/>
+        <c:crossAx val="71286320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42127090"/>
+        <c:axId val="71286320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,7 +754,1023 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46728439"/>
+        <c:crossAx val="2239662"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>avg</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.128655405908178"/>
+          <c:y val="0.194933053294828"/>
+          <c:w val="0.871046952898281"/>
+          <c:h val="0.720661590968758"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100% brightness'!$W$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'100% brightness'!$Q$8:$Q$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'100% brightness'!$W$8:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.00763984177161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.571426077228786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34956075129698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22085620986663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.162395189579232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.131782829691602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.104246277649224</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0855638801671721</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0715157725379365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0576237989688896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="33397706"/>
+        <c:axId val="2957158"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="33397706"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2957158"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2957158"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33397706"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'average brightness per distance'!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'average brightness per distance'!$C$35:$N$35</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'average brightness per distance'!$C$36:$N$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.908947425245634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.679359803032777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0785461023103889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0785461023103889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.679359803032777</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.908947425245634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="24934930"/>
+        <c:axId val="53966527"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="24934930"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53966527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53966527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24934930"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -732,7 +1834,7 @@
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>avg</a:t>
+              <a:t>Chart Title</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -741,29 +1843,18 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.128701507383886"/>
-          <c:y val="0.194907468171676"/>
-          <c:w val="0.871145458719106"/>
-          <c:h val="0.72069825436409"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100% brightness'!$W$6</c:f>
+              <c:f>Avg!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg</c:v>
+                  <c:v>aveg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -782,126 +1873,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586">
-                  <a:alpha val="-17698000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="6407280">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="6022292400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="6035662080">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c">
-                  <a:alpha val="-1446784704"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="2067066720">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln w="2972724840">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff">
-                  <a:alpha val="-47148408"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="3109385880">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="314004"/>
-              </a:solidFill>
-              <a:ln w="1161954720">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="aecf00"/>
-              </a:solidFill>
-              <a:ln w="4124252160">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4b1f6f">
-                  <a:alpha val="-628179704"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="1772368920">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff950e"/>
-              </a:solidFill>
-              <a:ln w="6029941680">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -911,98 +1883,353 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'100% brightness'!$Q$8:$Q$17</c:f>
+              <c:f>Avg!$C$6:$N$6</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110</c:v>
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100% brightness'!$W$8:$W$17</c:f>
+              <c:f>Avg!$C$7:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.00763984177161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.571426077228786</c:v>
+                  <c:v>0.908947425245634</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34956075129698</c:v>
+                  <c:v>0.679359803032778</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22085620986663</c:v>
+                  <c:v>0.078546102310389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.162395189579232</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.131782829691602</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.104246277649224</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0855638801671721</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0715157725379365</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0576237989688896</c:v>
+                  <c:v>0.078546102310389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.679359803032778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.908947425245634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:hiLowLines>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Avg!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln>
-              <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
           </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="89075139"/>
-        <c:axId val="29599481"/>
-      </c:lineChart>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Avg!$C$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Avg!$C$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.851227532752793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.589851304672355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0326978678126169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0326978678126169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.589851304672355</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.851227532752793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Avg!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="a5a5a5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Avg!$C$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Avg!$C$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966667317738475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7688683013932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.124394336808161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.124394336808161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7688683013932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.966667317738475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="33000442"/>
+        <c:axId val="53759125"/>
+      </c:radarChart>
       <c:catAx>
-        <c:axId val="89075139"/>
+        <c:axId val="33000442"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1012,10 +2239,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
+            <a:noFill/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -1036,14 +2260,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29599481"/>
+        <c:crossAx val="53759125"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29599481"/>
+        <c:axId val="53759125"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,979 +2310,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89075139"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Chart Title</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:radarChart>
-        <c:radarStyle val="marker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'average brightness per distance'!$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586">
-                  <a:alpha val="-17698000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="6407280">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="6022292400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="6035662080">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c">
-                  <a:alpha val="-1446784704"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="2067066720">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln w="2972724840">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff">
-                  <a:alpha val="-47148408"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="3109385880">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="314004"/>
-              </a:solidFill>
-              <a:ln w="1161954720">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="aecf00"/>
-              </a:solidFill>
-              <a:ln w="4124252160">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4b1f6f">
-                  <a:alpha val="-628179704"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="1772368920">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff950e"/>
-              </a:solidFill>
-              <a:ln w="6029941680">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="c5000b">
-                  <a:alpha val="-25601112"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="4647817080">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0084d1">
-                  <a:alpha val="-33901000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="12240360">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'average brightness per distance'!$C$35:$N$35</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>330</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'average brightness per distance'!$C$36:$N$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.908947425245634</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.679359803032778</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0785461023103889</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0785461023103889</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.679359803032778</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.908947425245634</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="56387142"/>
-        <c:axId val="20621748"/>
-      </c:radarChart>
-      <c:catAx>
-        <c:axId val="56387142"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="20621748"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="20621748"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="56387142"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Chart Title</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:radarChart>
-        <c:radarStyle val="marker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Avg!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>aveg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Avg!$C$6:$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>330</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Avg!$C$7:$N$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.908947425245634</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.679359803032778</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0785461023103889</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0785461023103889</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.679359803032778</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.908947425245634</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Avg!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Avg!$C$6:$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>330</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Avg!$C$8:$N$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.851227532752793</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.589851304672355</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0326978678126169</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0326978678126169</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.589851304672355</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.851227532752793</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Avg!$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>max</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Avg!$C$6:$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>330</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Avg!$C$9:$N$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.966667317738475</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.768868301393201</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.124394336808161</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.124394336808161</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.768868301393201</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.966667317738475</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="80701222"/>
-        <c:axId val="60256915"/>
-      </c:radarChart>
-      <c:catAx>
-        <c:axId val="80701222"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="60256915"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="60256915"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="80701222"/>
+        <c:crossAx val="33000442"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2096,7 +2348,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2126,6 +2378,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2221,17 +2474,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26844958"/>
-        <c:axId val="99981159"/>
+        <c:axId val="58198428"/>
+        <c:axId val="55644757"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26844958"/>
+        <c:axId val="58198428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2260,12 +2513,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99981159"/>
+        <c:crossAx val="55644757"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99981159"/>
+        <c:axId val="55644757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,7 +2533,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2309,7 +2562,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26844958"/>
+        <c:crossAx val="58198428"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2357,9 +2610,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>344520</xdr:colOff>
+      <xdr:colOff>344160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2367,8 +2620,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7383960" y="1023840"/>
-        <a:ext cx="4704840" cy="2742120"/>
+        <a:off x="7593480" y="1023840"/>
+        <a:ext cx="4837680" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2392,9 +2645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>451800</xdr:colOff>
+      <xdr:colOff>451440</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2402,8 +2655,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13635000" y="1795320"/>
-        <a:ext cx="4704480" cy="2742480"/>
+        <a:off x="14015880" y="1795320"/>
+        <a:ext cx="4837680" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2427,9 +2680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>209160</xdr:colOff>
+      <xdr:colOff>208800</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2437,8 +2690,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8896320" y="4376160"/>
-        <a:ext cx="4704840" cy="2742480"/>
+        <a:off x="9124920" y="4376160"/>
+        <a:ext cx="4837680" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2462,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>142920</xdr:colOff>
+      <xdr:colOff>142560</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2472,8 +2725,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3396240" y="2371320"/>
-        <a:ext cx="5204880" cy="3537720"/>
+        <a:off x="3472560" y="2371320"/>
+        <a:ext cx="5356800" cy="3537360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2490,16 +2743,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>706320</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>45000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>-7920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>776520</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>115200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2507,8 +2760,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8021520" y="1036440"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="14960880" y="-7920"/>
+        <a:ext cx="5870880" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2528,16 +2781,16 @@
   </sheetPr>
   <dimension ref="B5:N37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="G9:G17 B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,13 +4083,13 @@
   </sheetPr>
   <dimension ref="B9:U22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="1" sqref="G9:G17 F19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.706976744186"/>
   </cols>
   <sheetData>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3914,31 +4167,31 @@
       <c r="I11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="J11" s="3" t="n">
         <f aca="false">C11/$C$11</f>
         <v>1</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="3" t="n">
         <f aca="false">D11/$D$11</f>
         <v>1</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="3" t="n">
         <f aca="false">E11/$E$11</f>
         <v>1</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="3" t="n">
         <f aca="false">F11/$F$11</f>
         <v>1</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="3" t="n">
         <f aca="false">G11/$G$11</f>
         <v>1</v>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="O11" s="3" t="n">
         <f aca="false">AVERAGE(J11:N11)</f>
         <v>1</v>
       </c>
-      <c r="P11" s="4" t="n">
+      <c r="P11" s="3" t="n">
         <f aca="false">STDEV(J11:N11)</f>
         <v>0</v>
       </c>
@@ -3965,31 +4218,31 @@
       <c r="I12" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="J12" s="3" t="n">
         <f aca="false">C12/$C$11</f>
         <v>0.875</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="3" t="n">
         <f aca="false">D12/$D$11</f>
         <v>0.889301383732703</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="3" t="n">
         <f aca="false">E12/$E$11</f>
         <v>0.53443733534061</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="3" t="n">
         <f aca="false">F12/$F$11</f>
         <v>0.935952177625961</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="N12" s="3" t="n">
         <f aca="false">G12/$G$11</f>
         <v>0.897560975609756</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="3" t="n">
         <f aca="false">AVERAGE(J12:N12)</f>
         <v>0.826450374461806</v>
       </c>
-      <c r="P12" s="4" t="n">
+      <c r="P12" s="3" t="n">
         <f aca="false">STDEV(J12:N12)</f>
         <v>0.164792515769748</v>
       </c>
@@ -4016,31 +4269,31 @@
       <c r="I13" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="J13" s="4" t="n">
+      <c r="J13" s="3" t="n">
         <f aca="false">C13/$C$11</f>
         <v>0.75</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="3" t="n">
         <f aca="false">D13/$D$11</f>
         <v>0.70249746878164</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="3" t="n">
         <f aca="false">E13/$E$11</f>
         <v>0.651110274745954</v>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="M13" s="3" t="n">
         <f aca="false">F13/$F$11</f>
         <v>0.643894107600342</v>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="N13" s="3" t="n">
         <f aca="false">G13/$G$11</f>
         <v>0.637804878048781</v>
       </c>
-      <c r="O13" s="4" t="n">
+      <c r="O13" s="3" t="n">
         <f aca="false">AVERAGE(J13:N13)</f>
         <v>0.677061345835343</v>
       </c>
-      <c r="P13" s="4" t="n">
+      <c r="P13" s="3" t="n">
         <f aca="false">STDEV(J13:N13)</f>
         <v>0.0481706281560451</v>
       </c>
@@ -4067,31 +4320,31 @@
       <c r="I14" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="J14" s="3" t="n">
         <f aca="false">C14/$C$11</f>
         <v>0.2038</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="3" t="n">
         <f aca="false">D14/$D$11</f>
         <v>0.158623017212285</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="3" t="n">
         <f aca="false">E14/$E$11</f>
         <v>0.0873165223936771</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="3" t="n">
         <f aca="false">F14/$F$11</f>
         <v>0.0572160546541418</v>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="N14" s="3" t="n">
         <f aca="false">G14/$G$11</f>
         <v>0.0524390243902439</v>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="3" t="n">
         <f aca="false">AVERAGE(J14:N14)</f>
         <v>0.11187892373007</v>
       </c>
-      <c r="P14" s="4" t="n">
+      <c r="P14" s="3" t="n">
         <f aca="false">STDEV(J14:N14)</f>
         <v>0.0666313308186305</v>
       </c>
@@ -4104,49 +4357,49 @@
       <c r="G19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="3" t="n">
         <f aca="false">J11</f>
         <v>1</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="4" t="n">
+      <c r="J19" s="3" t="n">
         <f aca="false">K11</f>
         <v>1</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="3" t="n">
         <f aca="false">L11</f>
         <v>1</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="4" t="n">
+      <c r="N19" s="3" t="n">
         <f aca="false">M11</f>
         <v>1</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="4" t="n">
+      <c r="P19" s="3" t="n">
         <f aca="false">N11</f>
         <v>1</v>
       </c>
       <c r="Q19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="R19" s="4" t="n">
+      <c r="R19" s="3" t="n">
         <f aca="false">O11</f>
         <v>1</v>
       </c>
       <c r="S19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="T19" s="4" t="n">
+      <c r="T19" s="3" t="n">
         <f aca="false">P11</f>
         <v>0</v>
       </c>
@@ -4162,49 +4415,49 @@
       <c r="G20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="3" t="n">
         <f aca="false">J12</f>
         <v>0.875</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="4" t="n">
+      <c r="J20" s="3" t="n">
         <f aca="false">K12</f>
         <v>0.889301383732703</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="3" t="n">
         <f aca="false">L12</f>
         <v>0.53443733534061</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="4" t="n">
+      <c r="N20" s="3" t="n">
         <f aca="false">M12</f>
         <v>0.935952177625961</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="4" t="n">
+      <c r="P20" s="3" t="n">
         <f aca="false">N12</f>
         <v>0.897560975609756</v>
       </c>
       <c r="Q20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="R20" s="4" t="n">
+      <c r="R20" s="3" t="n">
         <f aca="false">O12</f>
         <v>0.826450374461806</v>
       </c>
       <c r="S20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="T20" s="4" t="n">
+      <c r="T20" s="3" t="n">
         <f aca="false">P12</f>
         <v>0.164792515769748</v>
       </c>
@@ -4220,49 +4473,49 @@
       <c r="G21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="3" t="n">
         <f aca="false">J13</f>
         <v>0.75</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="4" t="n">
+      <c r="J21" s="3" t="n">
         <f aca="false">K13</f>
         <v>0.70249746878164</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="3" t="n">
         <f aca="false">L13</f>
         <v>0.651110274745954</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="4" t="n">
+      <c r="N21" s="3" t="n">
         <f aca="false">M13</f>
         <v>0.643894107600342</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="4" t="n">
+      <c r="P21" s="3" t="n">
         <f aca="false">N13</f>
         <v>0.637804878048781</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="R21" s="4" t="n">
+      <c r="R21" s="3" t="n">
         <f aca="false">O13</f>
         <v>0.677061345835343</v>
       </c>
       <c r="S21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="T21" s="4" t="n">
+      <c r="T21" s="3" t="n">
         <f aca="false">P13</f>
         <v>0.0481706281560451</v>
       </c>
@@ -4278,49 +4531,49 @@
       <c r="G22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="3" t="n">
         <f aca="false">J14</f>
         <v>0.2038</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="4" t="n">
+      <c r="J22" s="3" t="n">
         <f aca="false">K14</f>
         <v>0.158623017212285</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="3" t="n">
         <f aca="false">L14</f>
         <v>0.0873165223936771</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="4" t="n">
+      <c r="N22" s="3" t="n">
         <f aca="false">M14</f>
         <v>0.0572160546541418</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="P22" s="4" t="n">
+      <c r="P22" s="3" t="n">
         <f aca="false">N14</f>
         <v>0.0524390243902439</v>
       </c>
       <c r="Q22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="R22" s="4" t="n">
+      <c r="R22" s="3" t="n">
         <f aca="false">O14</f>
         <v>0.11187892373007</v>
       </c>
       <c r="S22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="T22" s="4" t="n">
+      <c r="T22" s="3" t="n">
         <f aca="false">P14</f>
         <v>0.0666313308186305</v>
       </c>
@@ -4346,14 +4599,14 @@
   </sheetPr>
   <dimension ref="B5:N37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="G9:G17 C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5480,14 +5733,14 @@
   </sheetPr>
   <dimension ref="B5:N37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="G9:G17 C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6779,14 +7032,14 @@
   </sheetPr>
   <dimension ref="B5:N37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="G9:G17 C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7904,14 +8157,14 @@
   </sheetPr>
   <dimension ref="B5:X37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="G9:G17 C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9348,13 +9601,13 @@
   </sheetPr>
   <dimension ref="B22:N48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="1" sqref="G9:G17 B40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10139,13 +10392,13 @@
   </sheetPr>
   <dimension ref="B6:N11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="G9:G17 C9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10464,28 +10717,28 @@
   </sheetPr>
   <dimension ref="C6:L28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9:G17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.706976744186"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="3"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
@@ -11059,15 +11312,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B5:T28"/>
+  <dimension ref="B5:T39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R7" activeCellId="1" sqref="G9:G17 R7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.706976744186"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11136,31 +11389,31 @@
       <c r="I6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="3" t="n">
         <f aca="false">C6/$C$7</f>
         <v>0.87378640776699</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="3" t="n">
         <f aca="false">D6/$D$7</f>
         <v>0.668989547038328</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="3" t="n">
         <f aca="false">E6/$E$7</f>
         <v>0.778753094755796</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="3" t="n">
         <f aca="false">F6/$F$7</f>
         <v>0.942913944902016</v>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="3" t="n">
         <f aca="false">G6/$G$7</f>
         <v>0.842</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="3" t="n">
         <f aca="false">AVERAGE(J6:N6)</f>
         <v>0.821288598892626</v>
       </c>
-      <c r="P6" s="4" t="n">
+      <c r="P6" s="3" t="n">
         <f aca="false">STDEV(J6:N6)</f>
         <v>0.10366047604106</v>
       </c>
@@ -11187,38 +11440,38 @@
       <c r="I7" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="3" t="n">
         <f aca="false">C7/$C$7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="3" t="n">
         <f aca="false">D7/$D$7</f>
         <v>1</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="3" t="n">
         <f aca="false">E7/$E$7</f>
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="3" t="n">
         <f aca="false">F7/$F$7</f>
         <v>1</v>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="N7" s="3" t="n">
         <f aca="false">G7/$G$7</f>
         <v>1</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="3" t="n">
         <f aca="false">AVERAGE(J7:N7)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="3" t="n">
         <f aca="false">STDEV(J7:N7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="3" t="n">
         <f aca="false">O7</f>
         <v>1</v>
       </c>
@@ -11245,38 +11498,38 @@
       <c r="I8" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="3" t="n">
         <f aca="false">C8/$C$7</f>
         <v>0.681553398058252</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="3" t="n">
         <f aca="false">D8/$D$7</f>
         <v>0.634146341463415</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="3" t="n">
         <f aca="false">E8/$E$7</f>
         <v>0.646185010128292</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="3" t="n">
         <f aca="false">F8/$F$7</f>
         <v>0.649389378017609</v>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="N8" s="3" t="n">
         <f aca="false">G8/$G$7</f>
         <v>0.5926</v>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="O8" s="3" t="n">
         <f aca="false">AVERAGE(J8:N8)</f>
         <v>0.640774825533513</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="P8" s="3" t="n">
         <f aca="false">STDEV(J8:N8)</f>
         <v>0.0321369071522845</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="S8" s="4" t="n">
+      <c r="S8" s="3" t="n">
         <f aca="false">O8</f>
         <v>0.640774825533513</v>
       </c>
@@ -11303,38 +11556,38 @@
       <c r="I9" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="3" t="n">
         <f aca="false">C9/$C$7</f>
         <v>0.444660194174757</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="3" t="n">
         <f aca="false">D9/$D$7</f>
         <v>0.400696864111498</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="3" t="n">
         <f aca="false">E9/$E$7</f>
         <v>0.438217420661715</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="3" t="n">
         <f aca="false">F9/$F$7</f>
         <v>0.408974723090031</v>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="N9" s="3" t="n">
         <f aca="false">G9/$G$7</f>
         <v>0.3608</v>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="O9" s="3" t="n">
         <f aca="false">AVERAGE(J9:N9)</f>
         <v>0.4106698404076</v>
       </c>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="3" t="n">
         <f aca="false">STDEV(J9:N9)</f>
         <v>0.0335542396288302</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="S9" s="3" t="n">
         <f aca="false">O9</f>
         <v>0.4106698404076</v>
       </c>
@@ -11361,38 +11614,38 @@
       <c r="I10" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="J10" s="3" t="n">
         <f aca="false">C10/$C$7</f>
         <v>0.314563106796116</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="3" t="n">
         <f aca="false">D10/$D$7</f>
         <v>0.287456445993031</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="3" t="n">
         <f aca="false">E10/$E$7</f>
         <v>0.311276164753545</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="3" t="n">
         <f aca="false">F10/$F$7</f>
         <v>0.281454132348765</v>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="N10" s="3" t="n">
         <f aca="false">G10/$G$7</f>
         <v>0.2657</v>
       </c>
-      <c r="O10" s="4" t="n">
+      <c r="O10" s="3" t="n">
         <f aca="false">AVERAGE(J10:N10)</f>
         <v>0.292089969978291</v>
       </c>
-      <c r="P10" s="4" t="n">
+      <c r="P10" s="3" t="n">
         <f aca="false">STDEV(J10:N10)</f>
         <v>0.0206408154541276</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="S10" s="4" t="n">
+      <c r="S10" s="3" t="n">
         <f aca="false">O10</f>
         <v>0.292089969978291</v>
       </c>
@@ -11419,38 +11672,38 @@
       <c r="I11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="J11" s="3" t="n">
         <f aca="false">C11/$C$7</f>
         <v>0.233009708737864</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="3" t="n">
         <f aca="false">D11/$D$7</f>
         <v>0.204529616724739</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="3" t="n">
         <f aca="false">E11/$E$7</f>
         <v>0.228899392302498</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="3" t="n">
         <f aca="false">F11/$F$7</f>
         <v>0.215847770519739</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="3" t="n">
         <f aca="false">G11/$G$7</f>
         <v>0.2042</v>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="O11" s="3" t="n">
         <f aca="false">AVERAGE(J11:N11)</f>
         <v>0.217297297656968</v>
       </c>
-      <c r="P11" s="4" t="n">
+      <c r="P11" s="3" t="n">
         <f aca="false">STDEV(J11:N11)</f>
         <v>0.013399090205709</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="S11" s="4" t="n">
+      <c r="S11" s="3" t="n">
         <f aca="false">O11</f>
         <v>0.217297297656968</v>
       </c>
@@ -11477,38 +11730,38 @@
       <c r="I12" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="J12" s="3" t="n">
         <f aca="false">C12/$C$7</f>
         <v>0.178640776699029</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="3" t="n">
         <f aca="false">D12/$D$7</f>
         <v>0.153310104529617</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="3" t="n">
         <f aca="false">E12/$E$7</f>
         <v>0.177132568084628</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="3" t="n">
         <f aca="false">F12/$F$7</f>
         <v>0.170690144845214</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="N12" s="3" t="n">
         <f aca="false">G12/$G$7</f>
         <v>0.15</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="3" t="n">
         <f aca="false">AVERAGE(J12:N12)</f>
         <v>0.165954718831698</v>
       </c>
-      <c r="P12" s="4" t="n">
+      <c r="P12" s="3" t="n">
         <f aca="false">STDEV(J12:N12)</f>
         <v>0.0134419489054872</v>
       </c>
       <c r="R12" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="S12" s="4" t="n">
+      <c r="S12" s="3" t="n">
         <f aca="false">O12</f>
         <v>0.165954718831698</v>
       </c>
@@ -11535,38 +11788,38 @@
       <c r="I13" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="J13" s="4" t="n">
+      <c r="J13" s="3" t="n">
         <f aca="false">C13/$C$7</f>
         <v>0.14368932038835</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="3" t="n">
         <f aca="false">D13/$D$7</f>
         <v>0.127526132404181</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="3" t="n">
         <f aca="false">E13/$E$7</f>
         <v>0.138870132793158</v>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="M13" s="3" t="n">
         <f aca="false">F13/$F$7</f>
         <v>0.131354728770236</v>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="N13" s="3" t="n">
         <f aca="false">G13/$G$7</f>
         <v>0.1171</v>
       </c>
-      <c r="O13" s="4" t="n">
+      <c r="O13" s="3" t="n">
         <f aca="false">AVERAGE(J13:N13)</f>
         <v>0.131708062871185</v>
       </c>
-      <c r="P13" s="4" t="n">
+      <c r="P13" s="3" t="n">
         <f aca="false">STDEV(J13:N13)</f>
         <v>0.0103181232005399</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="S13" s="4" t="n">
+      <c r="S13" s="3" t="n">
         <f aca="false">O13</f>
         <v>0.131708062871185</v>
       </c>
@@ -11593,38 +11846,38 @@
       <c r="I14" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="J14" s="3" t="n">
         <f aca="false">C14/$C$7</f>
         <v>0.116504854368932</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="3" t="n">
         <f aca="false">D14/$D$7</f>
         <v>0.101393728222997</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="3" t="n">
         <f aca="false">E14/$E$7</f>
         <v>0.114337159576862</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="3" t="n">
         <f aca="false">F14/$F$7</f>
         <v>0.127804600965635</v>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="N14" s="3" t="n">
         <f aca="false">G14/$G$7</f>
         <v>0.097</v>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="3" t="n">
         <f aca="false">AVERAGE(J14:N14)</f>
         <v>0.111408068626885</v>
       </c>
-      <c r="P14" s="4" t="n">
+      <c r="P14" s="3" t="n">
         <f aca="false">STDEV(J14:N14)</f>
         <v>0.0123620642158907</v>
       </c>
       <c r="R14" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="S14" s="4" t="n">
+      <c r="S14" s="3" t="n">
         <f aca="false">O14</f>
         <v>0.111408068626885</v>
       </c>
@@ -11651,38 +11904,38 @@
       <c r="I15" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="J15" s="4" t="n">
+      <c r="J15" s="3" t="n">
         <f aca="false">C15/$C$7</f>
         <v>0.100970873786408</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="3" t="n">
         <f aca="false">D15/$D$7</f>
         <v>0.0822299651567944</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="3" t="n">
         <f aca="false">E15/$E$7</f>
         <v>0.0940805761872609</v>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="3" t="n">
         <f aca="false">F15/$F$7</f>
         <v>0.0866231184322636</v>
       </c>
-      <c r="N15" s="4" t="n">
+      <c r="N15" s="3" t="n">
         <f aca="false">G15/$G$7</f>
         <v>0.082</v>
       </c>
-      <c r="O15" s="4" t="n">
+      <c r="O15" s="3" t="n">
         <f aca="false">AVERAGE(J15:N15)</f>
         <v>0.0891809067125453</v>
       </c>
-      <c r="P15" s="4" t="n">
+      <c r="P15" s="3" t="n">
         <f aca="false">STDEV(J15:N15)</f>
         <v>0.00820721291268707</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S15" s="4" t="n">
+      <c r="S15" s="3" t="n">
         <f aca="false">O15</f>
         <v>0.0891809067125453</v>
       </c>
@@ -11696,49 +11949,49 @@
       <c r="F19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="3" t="n">
         <f aca="false">J6</f>
         <v>0.87378640776699</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="3" t="n">
         <f aca="false">K6</f>
         <v>0.668989547038328</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="3" t="n">
         <f aca="false">L6</f>
         <v>0.778753094755796</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="M19" s="3" t="n">
         <f aca="false">M6</f>
         <v>0.942913944902016</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="O19" s="3" t="n">
         <f aca="false">N6</f>
         <v>0.842</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q19" s="4" t="n">
+      <c r="Q19" s="3" t="n">
         <f aca="false">O6</f>
         <v>0.821288598892626</v>
       </c>
       <c r="R19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="S19" s="4" t="n">
+      <c r="S19" s="3" t="n">
         <f aca="false">P6</f>
         <v>0.10366047604106</v>
       </c>
@@ -11754,49 +12007,49 @@
       <c r="F20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="3" t="n">
         <f aca="false">J7</f>
         <v>1</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="3" t="n">
         <f aca="false">K7</f>
         <v>1</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="3" t="n">
         <f aca="false">L7</f>
         <v>1</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="4" t="n">
+      <c r="M20" s="3" t="n">
         <f aca="false">M7</f>
         <v>1</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="4" t="n">
+      <c r="O20" s="3" t="n">
         <f aca="false">N7</f>
         <v>1</v>
       </c>
       <c r="P20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q20" s="4" t="n">
+      <c r="Q20" s="3" t="n">
         <f aca="false">O7</f>
         <v>1</v>
       </c>
       <c r="R20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="S20" s="4" t="n">
+      <c r="S20" s="3" t="n">
         <f aca="false">P7</f>
         <v>0</v>
       </c>
@@ -11812,49 +12065,49 @@
       <c r="F21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="3" t="n">
         <f aca="false">J8</f>
         <v>0.681553398058252</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" s="3" t="n">
         <f aca="false">K8</f>
         <v>0.634146341463415</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="3" t="n">
         <f aca="false">L8</f>
         <v>0.646185010128292</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="M21" s="4" t="n">
+      <c r="M21" s="3" t="n">
         <f aca="false">M8</f>
         <v>0.649389378017609</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="4" t="n">
+      <c r="O21" s="3" t="n">
         <f aca="false">N8</f>
         <v>0.5926</v>
       </c>
       <c r="P21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q21" s="4" t="n">
+      <c r="Q21" s="3" t="n">
         <f aca="false">O8</f>
         <v>0.640774825533513</v>
       </c>
       <c r="R21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="4" t="n">
+      <c r="S21" s="3" t="n">
         <f aca="false">P8</f>
         <v>0.0321369071522845</v>
       </c>
@@ -11870,49 +12123,49 @@
       <c r="F22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="3" t="n">
         <f aca="false">J9</f>
         <v>0.444660194174757</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" s="3" t="n">
         <f aca="false">K9</f>
         <v>0.400696864111498</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="3" t="n">
         <f aca="false">L9</f>
         <v>0.438217420661715</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="4" t="n">
+      <c r="M22" s="3" t="n">
         <f aca="false">M9</f>
         <v>0.408974723090031</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O22" s="4" t="n">
+      <c r="O22" s="3" t="n">
         <f aca="false">N9</f>
         <v>0.3608</v>
       </c>
       <c r="P22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q22" s="4" t="n">
+      <c r="Q22" s="3" t="n">
         <f aca="false">O9</f>
         <v>0.4106698404076</v>
       </c>
       <c r="R22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="S22" s="4" t="n">
+      <c r="S22" s="3" t="n">
         <f aca="false">P9</f>
         <v>0.0335542396288302</v>
       </c>
@@ -11928,49 +12181,49 @@
       <c r="F23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="3" t="n">
         <f aca="false">J10</f>
         <v>0.314563106796116</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="4" t="n">
+      <c r="I23" s="3" t="n">
         <f aca="false">K10</f>
         <v>0.287456445993031</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="3" t="n">
         <f aca="false">L10</f>
         <v>0.311276164753545</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="4" t="n">
+      <c r="M23" s="3" t="n">
         <f aca="false">M10</f>
         <v>0.281454132348765</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="4" t="n">
+      <c r="O23" s="3" t="n">
         <f aca="false">N10</f>
         <v>0.2657</v>
       </c>
       <c r="P23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q23" s="4" t="n">
+      <c r="Q23" s="3" t="n">
         <f aca="false">O10</f>
         <v>0.292089969978291</v>
       </c>
       <c r="R23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="S23" s="4" t="n">
+      <c r="S23" s="3" t="n">
         <f aca="false">P10</f>
         <v>0.0206408154541276</v>
       </c>
@@ -11986,49 +12239,49 @@
       <c r="F24" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="3" t="n">
         <f aca="false">J11</f>
         <v>0.233009708737864</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="3" t="n">
         <f aca="false">K11</f>
         <v>0.204529616724739</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="3" t="n">
         <f aca="false">L11</f>
         <v>0.228899392302498</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="4" t="n">
+      <c r="M24" s="3" t="n">
         <f aca="false">M11</f>
         <v>0.215847770519739</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O24" s="4" t="n">
+      <c r="O24" s="3" t="n">
         <f aca="false">N11</f>
         <v>0.2042</v>
       </c>
       <c r="P24" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q24" s="4" t="n">
+      <c r="Q24" s="3" t="n">
         <f aca="false">O11</f>
         <v>0.217297297656968</v>
       </c>
       <c r="R24" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="S24" s="4" t="n">
+      <c r="S24" s="3" t="n">
         <f aca="false">P11</f>
         <v>0.013399090205709</v>
       </c>
@@ -12044,49 +12297,49 @@
       <c r="F25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="3" t="n">
         <f aca="false">J12</f>
         <v>0.178640776699029</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="I25" s="3" t="n">
         <f aca="false">K12</f>
         <v>0.153310104529617</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="3" t="n">
         <f aca="false">L12</f>
         <v>0.177132568084628</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="4" t="n">
+      <c r="M25" s="3" t="n">
         <f aca="false">M12</f>
         <v>0.170690144845214</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="4" t="n">
+      <c r="O25" s="3" t="n">
         <f aca="false">N12</f>
         <v>0.15</v>
       </c>
       <c r="P25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" s="4" t="n">
+      <c r="Q25" s="3" t="n">
         <f aca="false">O12</f>
         <v>0.165954718831698</v>
       </c>
       <c r="R25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="S25" s="4" t="n">
+      <c r="S25" s="3" t="n">
         <f aca="false">P12</f>
         <v>0.0134419489054872</v>
       </c>
@@ -12102,49 +12355,49 @@
       <c r="F26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="3" t="n">
         <f aca="false">J13</f>
         <v>0.14368932038835</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="4" t="n">
+      <c r="I26" s="3" t="n">
         <f aca="false">K13</f>
         <v>0.127526132404181</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="3" t="n">
         <f aca="false">L13</f>
         <v>0.138870132793158</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="M26" s="4" t="n">
+      <c r="M26" s="3" t="n">
         <f aca="false">M13</f>
         <v>0.131354728770236</v>
       </c>
       <c r="N26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="4" t="n">
+      <c r="O26" s="3" t="n">
         <f aca="false">N13</f>
         <v>0.1171</v>
       </c>
       <c r="P26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q26" s="4" t="n">
+      <c r="Q26" s="3" t="n">
         <f aca="false">O13</f>
         <v>0.131708062871185</v>
       </c>
       <c r="R26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="S26" s="4" t="n">
+      <c r="S26" s="3" t="n">
         <f aca="false">P13</f>
         <v>0.0103181232005399</v>
       </c>
@@ -12160,49 +12413,49 @@
       <c r="F27" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="3" t="n">
         <f aca="false">J14</f>
         <v>0.116504854368932</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="3" t="n">
         <f aca="false">K14</f>
         <v>0.101393728222997</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="3" t="n">
         <f aca="false">L14</f>
         <v>0.114337159576862</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="M27" s="4" t="n">
+      <c r="M27" s="3" t="n">
         <f aca="false">M14</f>
         <v>0.127804600965635</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O27" s="4" t="n">
+      <c r="O27" s="3" t="n">
         <f aca="false">N14</f>
         <v>0.097</v>
       </c>
       <c r="P27" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q27" s="4" t="n">
+      <c r="Q27" s="3" t="n">
         <f aca="false">O14</f>
         <v>0.111408068626885</v>
       </c>
       <c r="R27" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="S27" s="4" t="n">
+      <c r="S27" s="3" t="n">
         <f aca="false">P14</f>
         <v>0.0123620642158907</v>
       </c>
@@ -12218,53 +12471,493 @@
       <c r="F28" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="3" t="n">
         <f aca="false">J15</f>
         <v>0.100970873786408</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" s="3" t="n">
         <f aca="false">K15</f>
         <v>0.0822299651567944</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="3" t="n">
         <f aca="false">L15</f>
         <v>0.0940805761872609</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="4" t="n">
+      <c r="M28" s="3" t="n">
         <f aca="false">M15</f>
         <v>0.0866231184322636</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O28" s="4" t="n">
+      <c r="O28" s="3" t="n">
         <f aca="false">N15</f>
         <v>0.082</v>
       </c>
       <c r="P28" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q28" s="4" t="n">
+      <c r="Q28" s="3" t="n">
         <f aca="false">O15</f>
         <v>0.0891809067125453</v>
       </c>
       <c r="R28" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="S28" s="4" t="n">
+      <c r="S28" s="3" t="n">
         <f aca="false">P15</f>
         <v>0.00820721291268707</v>
       </c>
       <c r="T28" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="0" t="n">
+        <f aca="false">B6</f>
+        <v>10</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">C6</f>
+        <v>450</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">D6</f>
+        <v>1920</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">E6</f>
+        <v>3460</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <f aca="false">F6</f>
+        <v>6640</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <f aca="false">G6</f>
+        <v>8420</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="0" t="n">
+        <f aca="false">B7</f>
+        <v>20</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">C7</f>
+        <v>515</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">D7</f>
+        <v>2870</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">E7</f>
+        <v>4443</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <f aca="false">F7</f>
+        <v>7042</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <f aca="false">G7</f>
+        <v>10000</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="0" t="n">
+        <f aca="false">B8</f>
+        <v>30</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">C8</f>
+        <v>351</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <f aca="false">D8</f>
+        <v>1820</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">E8</f>
+        <v>2871</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <f aca="false">F8</f>
+        <v>4573</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <f aca="false">G8</f>
+        <v>5926</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="0" t="n">
+        <f aca="false">B9</f>
+        <v>40</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">C9</f>
+        <v>229</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">D9</f>
+        <v>1150</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">E9</f>
+        <v>1947</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <f aca="false">F9</f>
+        <v>2880</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <f aca="false">G9</f>
+        <v>3608</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="0" t="n">
+        <f aca="false">B10</f>
+        <v>50</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">C10</f>
+        <v>162</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <f aca="false">D10</f>
+        <v>825</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">E10</f>
+        <v>1383</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <f aca="false">F10</f>
+        <v>1982</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <f aca="false">G10</f>
+        <v>2657</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="0" t="n">
+        <f aca="false">B11</f>
+        <v>60</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">C11</f>
+        <v>120</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <f aca="false">D11</f>
+        <v>587</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">E11</f>
+        <v>1017</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <f aca="false">F11</f>
+        <v>1520</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <f aca="false">G11</f>
+        <v>2042</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="0" t="n">
+        <f aca="false">B12</f>
+        <v>70</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">C12</f>
+        <v>92</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <f aca="false">D12</f>
+        <v>440</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">E12</f>
+        <v>787</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <f aca="false">F12</f>
+        <v>1202</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <f aca="false">G12</f>
+        <v>1500</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="0" t="n">
+        <f aca="false">B13</f>
+        <v>80</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">C13</f>
+        <v>74</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <f aca="false">D13</f>
+        <v>366</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">E13</f>
+        <v>617</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <f aca="false">F13</f>
+        <v>925</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <f aca="false">G13</f>
+        <v>1171</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="0" t="n">
+        <f aca="false">B14</f>
+        <v>90</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">C14</f>
+        <v>60</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <f aca="false">D14</f>
+        <v>291</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">E14</f>
+        <v>508</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <f aca="false">F14</f>
+        <v>900</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <f aca="false">G14</f>
+        <v>970</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="0" t="n">
+        <f aca="false">B15</f>
+        <v>100</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">C15</f>
+        <v>52</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <f aca="false">D15</f>
+        <v>236</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">E15</f>
+        <v>418</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <f aca="false">F15</f>
+        <v>610</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <f aca="false">G15</f>
+        <v>820</v>
+      </c>
+      <c r="P39" s="0" t="s">
         <v>10</v>
       </c>
     </row>

--- a/experiments/illuminance vs angle/illuminance vs angle.xlsx
+++ b/experiments/illuminance vs angle/illuminance vs angle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="10% brightness" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="Blue" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="distance and illuminance" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -129,7 +130,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -177,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -191,6 +192,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,7 +224,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -253,7 +258,7 @@
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -667,13 +672,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2239662"/>
-        <c:axId val="71286320"/>
+        <c:axId val="91987216"/>
+        <c:axId val="87367474"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="2239662"/>
+        <c:axId val="91987216"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -704,14 +709,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71286320"/>
+        <c:crossAx val="87367474"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71286320"/>
+        <c:axId val="87367474"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,7 +759,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2239662"/>
+        <c:crossAx val="91987216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -832,10 +837,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.128655405908178"/>
-          <c:y val="0.194933053294828"/>
-          <c:w val="0.871046952898281"/>
-          <c:h val="0.720661590968758"/>
+          <c:x val="0.128621089223638"/>
+          <c:y val="0.19495864513588"/>
+          <c:w val="0.871016801853998"/>
+          <c:h val="0.720624917946698"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1164,11 +1169,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="33397706"/>
-        <c:axId val="2957158"/>
+        <c:axId val="59022701"/>
+        <c:axId val="7503481"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33397706"/>
+        <c:axId val="59022701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,14 +1209,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2957158"/>
+        <c:crossAx val="7503481"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2957158"/>
+        <c:axId val="7503481"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1259,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33397706"/>
+        <c:crossAx val="59022701"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1683,13 +1688,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="24934930"/>
-        <c:axId val="53966527"/>
+        <c:axId val="58917814"/>
+        <c:axId val="58111571"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="24934930"/>
+        <c:axId val="58917814"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1720,14 +1725,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53966527"/>
+        <c:crossAx val="58111571"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53966527"/>
+        <c:axId val="58111571"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1775,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24934930"/>
+        <c:crossAx val="58917814"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2223,13 +2228,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="33000442"/>
-        <c:axId val="53759125"/>
+        <c:axId val="86405712"/>
+        <c:axId val="26044913"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="33000442"/>
+        <c:axId val="86405712"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2260,14 +2265,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53759125"/>
+        <c:crossAx val="26044913"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53759125"/>
+        <c:axId val="26044913"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2315,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33000442"/>
+        <c:crossAx val="86405712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2348,257 +2353,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'distance and illuminance'!$R$7:$R$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'distance and illuminance'!$S$7:$S$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.640774825533513</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4106698404076</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.292089969978291</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.217297297656968</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.165954718831698</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.131708062871185</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.111408068626885</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0891809067125453</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="58198428"/>
-        <c:axId val="55644757"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="58198428"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="55644757"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="55644757"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="58198428"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2610,9 +2364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>344160</xdr:colOff>
+      <xdr:colOff>343800</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2620,8 +2374,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7593480" y="1023840"/>
-        <a:ext cx="4837680" cy="2741760"/>
+        <a:off x="7803000" y="1023840"/>
+        <a:ext cx="4970880" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2645,9 +2399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>451440</xdr:colOff>
+      <xdr:colOff>451080</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2655,8 +2409,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14015880" y="1795320"/>
-        <a:ext cx="4837680" cy="2742120"/>
+        <a:off x="14397120" y="1795320"/>
+        <a:ext cx="4970520" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2680,9 +2434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>208800</xdr:colOff>
+      <xdr:colOff>208440</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2690,8 +2444,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9124920" y="4376160"/>
-        <a:ext cx="4837680" cy="2742120"/>
+        <a:off x="9353520" y="4376160"/>
+        <a:ext cx="4970880" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2715,9 +2469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>142560</xdr:colOff>
+      <xdr:colOff>142200</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2725,43 +2479,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3472560" y="2371320"/>
-        <a:ext cx="5356800" cy="3537360"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>-7920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="14960880" y="-7920"/>
-        <a:ext cx="5870880" cy="3239280"/>
+        <a:off x="3548880" y="2371320"/>
+        <a:ext cx="5508720" cy="3537000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2782,15 +2501,15 @@
   <dimension ref="B5:N37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="K8:Q17 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,12 +3803,12 @@
   <dimension ref="B9:U22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="1" sqref="K8:Q17 F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4579,6 +4298,142 @@
       </c>
       <c r="U22" s="0" t="s">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B6:I45"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I37" activeCellId="1" sqref="K8:Q17 I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5023255813953"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="n">
+        <v>-90</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <f aca="false">'100% brightness'!F8</f>
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <f aca="false">'100% brightness'!F9</f>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <f aca="false">'100% brightness'!F10</f>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I40" s="4" t="n">
+        <f aca="false">'100% brightness'!F11</f>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="I41" s="4" t="n">
+        <f aca="false">'100% brightness'!F12</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <f aca="false">'100% brightness'!F13</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <f aca="false">'100% brightness'!F14</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <f aca="false">'100% brightness'!F15</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <f aca="false">'100% brightness'!F16</f>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4600,13 +4455,13 @@
   <dimension ref="B5:N37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="K8:Q17 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5734,13 +5589,13 @@
   <dimension ref="B5:N37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="K8:Q17 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7033,13 +6888,13 @@
   <dimension ref="B5:N37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="K8:Q17 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8157,14 +8012,14 @@
   </sheetPr>
   <dimension ref="B5:X37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="K8:Q17 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9602,12 +9457,12 @@
   <dimension ref="B22:N48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+      <selection pane="topLeft" activeCell="B40" activeCellId="1" sqref="K8:Q17 B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10393,12 +10248,12 @@
   <dimension ref="B6:N11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="K8:Q17 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10715,15 +10570,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:L28"/>
+  <dimension ref="C6:Q28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10768,6 +10623,34 @@
       <c r="G8" s="0" t="n">
         <v>2600</v>
       </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">G8</f>
+        <v>2600</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">F8</f>
+        <v>4840</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">E8</f>
+        <v>4200</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">D8</f>
+        <v>4285</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="false">E8</f>
+        <v>4200</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">F8</f>
+        <v>4840</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">G8</f>
+        <v>2600</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="n">
@@ -10785,6 +10668,34 @@
       <c r="G9" s="0" t="n">
         <v>1998</v>
       </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">G9</f>
+        <v>1998</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">F9</f>
+        <v>5310</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">E9</f>
+        <v>5950</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">D9</f>
+        <v>6420</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="false">E9</f>
+        <v>5950</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">F9</f>
+        <v>5310</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">G9</f>
+        <v>1998</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="n">
@@ -10802,6 +10713,34 @@
       <c r="G10" s="0" t="n">
         <v>547</v>
       </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">G10</f>
+        <v>547</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">F10</f>
+        <v>3302</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">E10</f>
+        <v>3770</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">D10</f>
+        <v>4910</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">E10</f>
+        <v>3770</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">F10</f>
+        <v>3302</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">G10</f>
+        <v>547</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="n">
@@ -10819,6 +10758,34 @@
       <c r="G11" s="0" t="n">
         <v>149</v>
       </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">G11</f>
+        <v>149</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">F11</f>
+        <v>1657</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="false">E11</f>
+        <v>2354</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">D11</f>
+        <v>2507</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <f aca="false">E11</f>
+        <v>2354</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">F11</f>
+        <v>1657</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">G11</f>
+        <v>149</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="n">
@@ -10836,6 +10803,34 @@
       <c r="G12" s="0" t="n">
         <v>110</v>
       </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">G12</f>
+        <v>110</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">F12</f>
+        <v>1219</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">E12</f>
+        <v>1620</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">D12</f>
+        <v>1820</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <f aca="false">E12</f>
+        <v>1620</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">F12</f>
+        <v>1219</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">G12</f>
+        <v>110</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="n">
@@ -10853,6 +10848,34 @@
       <c r="G13" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">G13</f>
+        <v>60</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">F13</f>
+        <v>892</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="false">E13</f>
+        <v>1227</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">D13</f>
+        <v>1375</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <f aca="false">E13</f>
+        <v>1227</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">F13</f>
+        <v>892</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">G13</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="n">
@@ -10870,6 +10893,34 @@
       <c r="G14" s="0" t="n">
         <v>55</v>
       </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">G14</f>
+        <v>55</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">F14</f>
+        <v>691</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">E14</f>
+        <v>943</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">D14</f>
+        <v>1012</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <f aca="false">E14</f>
+        <v>943</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">F14</f>
+        <v>691</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">G14</f>
+        <v>55</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="n">
@@ -10887,6 +10938,34 @@
       <c r="G15" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">G15</f>
+        <v>43</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">F15</f>
+        <v>547</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">E15</f>
+        <v>785</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">D15</f>
+        <v>810</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <f aca="false">E15</f>
+        <v>785</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">F15</f>
+        <v>547</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">G15</f>
+        <v>43</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="n">
@@ -10904,6 +10983,34 @@
       <c r="G16" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">G16</f>
+        <v>35</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">F16</f>
+        <v>420</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">E16</f>
+        <v>607</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">D16</f>
+        <v>667</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <f aca="false">E16</f>
+        <v>607</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">F16</f>
+        <v>420</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">G16</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="n">
@@ -10919,6 +11026,34 @@
         <v>353</v>
       </c>
       <c r="G17" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">G17</f>
+        <v>30</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">F17</f>
+        <v>353</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">E17</f>
+        <v>500</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">D17</f>
+        <v>557</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <f aca="false">E17</f>
+        <v>500</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <f aca="false">F17</f>
+        <v>353</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <f aca="false">G17</f>
         <v>30</v>
       </c>
     </row>
@@ -11314,13 +11449,13 @@
   </sheetPr>
   <dimension ref="B5:T39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="1" sqref="K8:Q17 C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12969,6 +13104,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>